--- a/Papers/Project3_Outline.xlsx
+++ b/Papers/Project3_Outline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Thought Leadership in Data Science</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Government as a thought Leader</t>
+  </si>
+  <si>
+    <t>Trends in Topics of interest</t>
+  </si>
+  <si>
+    <t>AIIndex,  Arxiv</t>
+  </si>
+  <si>
+    <t>Use relative trends</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,98 +678,121 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>8</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
